--- a/data/spark_funds/Investments.xlsx
+++ b/data/spark_funds/Investments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>C1</t>
   </si>
@@ -351,17 +351,60 @@
     <t>Sector-wise Investment Analysis</t>
   </si>
   <si>
+    <t>Juno Therapeutics</t>
+  </si>
+  <si>
+    <t>ReNeuron Group</t>
+  </si>
+  <si>
+    <t>FreeCharge</t>
+  </si>
+  <si>
+    <t>SoFi</t>
+  </si>
+  <si>
+    <t>OneWeb</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Social, Finance, 
+Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>permalink</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>permalink</t>
+    <t>venture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$USD]\ #,##0.00"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +473,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -463,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -567,11 +637,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -617,10 +697,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,9 +748,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,7 +1091,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,23 +1102,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1036,10 +1135,10 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="38">
         <v>90247</v>
       </c>
     </row>
@@ -1047,10 +1146,10 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="38">
         <v>66368</v>
       </c>
     </row>
@@ -1058,32 +1157,32 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>41</v>
+      <c r="C7" s="38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>40</v>
+      <c r="C8" s="38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="38">
         <v>114942</v>
       </c>
     </row>
@@ -1109,41 +1208,40 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1160,10 +1258,10 @@
       <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="41">
         <v>11748949.1294895</v>
       </c>
     </row>
@@ -1171,10 +1269,10 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="41">
         <v>958694.46975308598</v>
       </c>
     </row>
@@ -1182,21 +1280,21 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12">
-        <v>719817.99690717203</v>
+      <c r="C7" s="41">
+        <v>719779.62020167697</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="41">
         <v>73308593.029442102</v>
       </c>
     </row>
@@ -1204,10 +1302,15 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1233,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,21 +1348,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1279,7 +1382,9 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1288,7 +1393,9 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1297,7 +1404,9 @@
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1320,166 +1429,227 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="34">
+        <v>35759</v>
+      </c>
+      <c r="D5" s="34">
+        <v>2158</v>
+      </c>
+      <c r="E5" s="34">
+        <v>898</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="35">
+        <v>394680394849</v>
+      </c>
+      <c r="D6" s="35">
+        <v>19097204731</v>
+      </c>
+      <c r="E6" s="35">
+        <v>13668331235</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="C8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="37">
+        <v>8693</v>
+      </c>
+      <c r="D10" s="37">
+        <v>571</v>
+      </c>
+      <c r="E10" s="37">
+        <v>329</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="37">
+        <v>8113</v>
+      </c>
+      <c r="D11" s="37">
+        <v>456</v>
+      </c>
+      <c r="E11" s="37">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="37">
+        <v>5593</v>
+      </c>
+      <c r="D12" s="37">
+        <v>359</v>
+      </c>
+      <c r="E12" s="37">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="16">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1487,7 +1657,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1495,7 +1665,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1506,8 +1676,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A13:B13 A14:E14 A10:E12 A5:B9">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1519,7 +1689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1528,6 +1698,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
